--- a/Datasets/GuttmacherDataCenter.xlsx
+++ b/Datasets/GuttmacherDataCenter.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/haithereanika/Desktop/code/HackBeanpotCatAnika/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/haithereanika/Desktop/code/HackBeanpotCatAnika/Datasets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B2BEEEF-28AB-0E4E-9201-516CF955D82D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{003DFB9D-B78D-D240-9E53-E4381EAE4F87}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5500" yWindow="460" windowWidth="23300" windowHeight="16220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5500" yWindow="460" windowWidth="23300" windowHeight="16160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Guttmacher" sheetId="1" r:id="rId1"/>
@@ -1277,11 +1277,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:U19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="O21" sqref="O21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H1" sqref="H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="9" max="9" width="64.6640625" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
